--- a/docs/CodeSystem-argo-group-characteristic.xlsx
+++ b/docs/CodeSystem-argo-group-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T16:49:28-07:00</t>
+    <t>2021-09-09T07:45:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-argo-group-characteristic.xlsx
+++ b/docs/CodeSystem-argo-group-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-09T07:45:20-07:00</t>
+    <t>2021-09-12T16:50:58-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-argo-group-characteristic.xlsx
+++ b/docs/CodeSystem-argo-group-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T16:50:58-07:00</t>
+    <t>2021-09-22T17:58:21-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-argo-group-characteristic.xlsx
+++ b/docs/CodeSystem-argo-group-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T17:58:21-07:00</t>
+    <t>2021-09-22T19:07:38-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-argo-group-characteristic.xlsx
+++ b/docs/CodeSystem-argo-group-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T19:07:38-07:00</t>
+    <t>2021-09-22T19:20:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-argo-group-characteristic.xlsx
+++ b/docs/CodeSystem-argo-group-characteristic.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/sushi-sandbox/CodeSystem/argo-group-characteristic</t>
+    <t>http://www.fhir.org/guides/healthedata1-sandbox/CodeSystem/argo-group-characteristic</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T19:20:13-07:00</t>
+    <t>2021-11-09T10:18:17-08:00</t>
   </si>
   <si>
     <t>Publisher</t>
